--- a/INNOVATION PROJECT/圖片1.xlsx
+++ b/INNOVATION PROJECT/圖片1.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\周嘉禾\OneDrive\桌面\FCU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\INNOVATION PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E92F1A-B7C0-435A-835E-52ACAC0FABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58B3E741-B9F2-4882-9498-EDB460A06321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <r>
       <rPr>
@@ -248,6 +250,18 @@
     <t>nm^2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>n0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +269,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -369,65 +383,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -437,6 +445,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -454,6 +468,1759 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>results of maximum reflectivity change </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>with substrate and N</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.7341559006892339E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11885305249617725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21197814213872043</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31618178072838621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42193736134908921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52204236230161005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61199041546326649</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.689667852465223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75473617305922724</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80798033851792994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85077190131803437</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88469133649577669</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91129545817432711</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93199408679711093</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94799917392114696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5675-4381-98DA-986F578F2A58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.47</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.10202257331432021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19155714266467835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29431778493968908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40043011668989587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50215418833809899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59443661207316856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67471624199836655</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74234429645895395</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79792329844840071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84274017840732518</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87835570830760423</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90634467025901877</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92815319475571234</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94503566403003647</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95804002380806408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5675-4381-98DA-986F578F2A58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.65</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.1371063368963075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23344808356932634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33870944154595761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44377942232615203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54202306751972285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62948135716400921</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70447218821398705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76694664053620831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8178533309981636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85863417711386913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89087977745294578</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91612317567244617</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93573474003757984</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95088254905264258</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96253085029607055</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5675-4381-98DA-986F578F2A58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.18814929630021499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29062380420366662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39676454238700481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.498742498704972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59141050272509454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67212898842741398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74019376834864736</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79617408490574659</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84134084707598411</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87725044179882228</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90548013335569499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92748196580323738</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94451746590612762</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95764169084359207</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96771413580508514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5675-4381-98DA-986F578F2A58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.20802762847619591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31198698319726154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41783535296181984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51826589871758744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60866843547942107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68684564318288988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7524017827317141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80608868322916805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84926296555234371</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88350211858208705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91036681718177903</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93127401119255304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94744380826678165</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95989045283924235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96943666775371007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5675-4381-98DA-986F578F2A58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.79</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.32786815291438592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43330675152443782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5324693865118999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62113584320011939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69742003535749175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76113737631793399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81316066458434499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.854899968256146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8879422208790807</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91383252218404287</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93396046057934368</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94951523963749018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96148125131097528</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97065462154770354</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97766858009867474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5675-4381-98DA-986F578F2A58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="346500320"/>
+        <c:axId val="346500648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="346500320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346500648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="346500648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346500320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -676,6 +2443,47 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123144</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9CE0D1-CFA6-0252-9F4D-A81CA9505DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -980,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1291,30 +3099,30 @@
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="21">
-        <f t="shared" ref="B5" si="2">AVERAGE(B3:D3)</f>
+      <c r="B5" s="23">
+        <f>AVERAGE(B3:D3)</f>
         <v>118811.33333333333</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21">
-        <f t="shared" ref="E5" si="3">AVERAGE(E3:G3)</f>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23">
+        <f>AVERAGE(E3:G3)</f>
         <v>46695</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21">
-        <f t="shared" ref="H5" si="4">AVERAGE(H3:J3)</f>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23">
+        <f>AVERAGE(H3:J3)</f>
         <v>67454.333333333328</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23">
         <f>AVERAGE(K3:M3)</f>
         <v>64654.666666666664</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
       <c r="O5" s="2">
         <v>12000</v>
       </c>
@@ -1356,30 +3164,30 @@
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="23">
         <f>STDEV(B4:D4)</f>
         <v>2601.2874706976049</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21">
-        <f t="shared" ref="E6" si="5">STDEV(E4:G4)</f>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23">
+        <f>STDEV(E4:G4)</f>
         <v>1119.1373617145002</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21">
-        <f t="shared" ref="H6" si="6">STDEV(H4:J4)</f>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23">
+        <f>STDEV(H4:J4)</f>
         <v>5597.451070528572</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21">
-        <f t="shared" ref="K6" si="7">STDEV(K4:M4)</f>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23">
+        <f>STDEV(K4:M4)</f>
         <v>1851.9477611985585</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
       <c r="O6" s="2">
         <v>5000</v>
       </c>
@@ -1666,13 +3474,13 @@
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="20"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1702,7 +3510,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="D36" s="19"/>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
@@ -1793,40 +3601,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98225AE-9BC0-438B-85DE-04D379967FFD}">
   <dimension ref="F1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F1" s="18">
+      <c r="F1" s="24">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F2" s="18"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F3" s="18"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="20">
         <f>SQRT(MAX(H1:H2)^2-MIN(H1:H2)^2)</f>
         <v>0</v>
       </c>
@@ -1835,32 +3643,32 @@
       </c>
     </row>
     <row r="4" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F4" s="18"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F5" s="18"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F6" s="18"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F7" s="18">
+      <c r="F7" s="24">
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="18"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="20">
         <f>4/3*PI()*H7^3</f>
         <v>0</v>
       </c>
@@ -1869,11 +3677,11 @@
       </c>
     </row>
     <row r="9" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="18"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="20">
         <f>4*PI()*H7^2</f>
         <v>0</v>
       </c>
@@ -1882,40 +3690,42 @@
       </c>
     </row>
     <row r="10" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="18"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="18"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="18"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="18">
+      <c r="F13" s="24">
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H13" s="21"/>
       <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="18"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H14" s="21"/>
       <c r="I14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="18"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="20">
         <f>PI()*H13^2*H14</f>
         <v>0</v>
       </c>
@@ -1924,11 +3734,11 @@
       </c>
     </row>
     <row r="16" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="18"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="20">
         <f>2*PI()*H13*H14+2*PI()*H13^2</f>
         <v>0</v>
       </c>
@@ -1937,108 +3747,111 @@
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="18"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="18"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="18">
+      <c r="F19" s="24">
         <v>4</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="H19" s="21"/>
+      <c r="I19" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="18"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="6:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="F21" s="18"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="20">
         <f>1/3*PI()*H19^2*H20</f>
         <v>0</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="6:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="F22" s="18"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="20">
         <f>PI()*H19^2+PI()*H19*SQRT(H19^2+H20^2)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="18"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="18"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="18">
+      <c r="F25" s="24">
         <v>5</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="H25" s="21"/>
+      <c r="I25" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="18"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="20">
         <f>1/12*SQRT(2)*H25^3</f>
         <v>0</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="18"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="20">
         <f>SQRT(3)*H25^2</f>
         <v>0</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F28" s="18"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="18"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="18"/>
+      <c r="F30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2056,307 +3869,1802 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB3FB6C-2ADB-4708-8952-61A3D16C79F8}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>233</v>
+      </c>
+      <c r="C1">
+        <v>243</v>
+      </c>
+      <c r="D1">
+        <v>253</v>
+      </c>
+      <c r="E1">
+        <v>263</v>
+      </c>
+      <c r="F1">
+        <v>273</v>
+      </c>
+      <c r="G1">
+        <v>283</v>
+      </c>
+      <c r="H1">
+        <v>293</v>
+      </c>
+      <c r="I1">
+        <v>303</v>
+      </c>
+      <c r="J1">
+        <v>313</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:J7" si="0">$M$1*$M$2*B$1/$A2</f>
+        <v>11.471988</v>
+      </c>
+      <c r="C2">
+        <f t="shared" si="0"/>
+        <v>11.964347999999999</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>12.456707999999999</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>12.949068</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>13.441427999999998</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>13.933787999999998</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>14.426147999999998</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>14.918507999999999</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>15.410867999999999</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>8.2059999999999994E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>5.7359939999999998</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>5.9821739999999997</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>6.2283539999999995</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>6.4745340000000002</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>6.7207139999999992</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>6.966893999999999</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>7.2130739999999989</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>7.4592539999999996</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>7.7054339999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>3.8239959999999997</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3.9881159999999998</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>4.1522359999999994</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.3163559999999999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4.4804759999999995</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4.6445959999999991</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>4.8087159999999995</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>4.972836</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>5.1369559999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2.8679969999999999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.9910869999999998</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.1141769999999998</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3.2372670000000001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3.3603569999999996</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>3.4834469999999995</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>3.6065369999999994</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>3.7296269999999998</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>3.8527169999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.2943975999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.3928696</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2.4913415999999997</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.5898135999999998</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2.6882855999999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>2.7867575999999996</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2.8852295999999997</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>2.9837015999999998</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>3.0821736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.9119979999999999</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.9940579999999999</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.0761179999999997</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.1581779999999999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2.2402379999999997</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2.3222979999999995</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2.4043579999999998</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>2.486418</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>2.5684779999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>122</v>
+      </c>
+      <c r="C9">
+        <v>140</v>
+      </c>
+      <c r="D9">
+        <v>158</v>
+      </c>
+      <c r="E9">
+        <v>176</v>
+      </c>
+      <c r="F9">
+        <v>194</v>
+      </c>
+      <c r="G9">
+        <v>212</v>
+      </c>
+      <c r="H9">
+        <v>230</v>
+      </c>
+      <c r="I9">
+        <v>248</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f>$L$9*$L$10*(B$9+459.67*5/9)/$A10</f>
+        <v>18.580298733333329</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:I10" si="1">$L$9*$L$10*(C$9+459.67*5/9)/$A10</f>
+        <v>19.466546733333331</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>20.352794733333333</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>21.239042733333331</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>22.12529073333333</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>23.011538733333332</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>23.89778673333333</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>24.784034733333332</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>8.2059999999999994E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:I15" si="2">$L$9*$L$10*(B$9+459.67*5/9)/$A11</f>
+        <v>9.2901493666666646</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>9.7332733666666655</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>10.176397366666666</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>10.619521366666666</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>11.062645366666665</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>11.505769366666666</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>11.948893366666665</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>12.392017366666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>6.1934329111111106</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>6.4888489111111101</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>6.7842649111111104</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>7.0796809111111108</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>7.3750969111111102</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>7.6705129111111097</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>7.96592891111111</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>8.2613449111111112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>4.6450746833333323</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>4.8666366833333328</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>5.0881986833333332</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>5.3097606833333328</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>5.5313226833333324</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>5.7528846833333329</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>5.9744466833333325</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>6.196008683333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>3.7160597466666663</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>3.8933093466666664</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>4.0705589466666661</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>4.2478085466666666</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>4.4250581466666663</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>4.602307746666666</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>4.7795573466666665</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>4.9568069466666662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>3.0967164555555553</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>3.244424455555555</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>3.3921324555555552</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>3.5398404555555554</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>3.6875484555555551</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>3.8352564555555548</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>3.982964455555555</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>4.1306724555555556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DE84A5-E034-41A4-8D65-A2891F935C0E}">
+  <dimension ref="A1:J65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>233</v>
+        <v>1.18</v>
       </c>
       <c r="C1">
-        <v>243</v>
+        <v>1.47</v>
       </c>
       <c r="D1">
-        <v>253</v>
+        <v>1.65</v>
       </c>
       <c r="E1">
-        <v>263</v>
+        <v>1.92</v>
       </c>
       <c r="F1">
-        <v>273</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G1">
-        <v>283</v>
-      </c>
-      <c r="H1">
-        <v>293</v>
-      </c>
-      <c r="I1">
-        <v>303</v>
-      </c>
-      <c r="J1">
-        <v>313</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <f>$C$9*$C$10*B$1/$A2</f>
-        <v>11.471988</v>
+        <f t="shared" ref="B2:G2" si="0">(($J$3^(2*$A2)-($J$2/B$1)*$J$4^(2*$A2))/($J$3^(2*$A2)+($J$2/B$1)*$J$4^(2*$A2)))^2</f>
+        <v>4.7341559006892339E-2</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:J2" si="0">$C$9*$C$10*C$1/$A2</f>
-        <v>11.964347999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.10202257331432021</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>12.456707999999999</v>
+        <v>0.1371063368963075</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>12.949068</v>
+        <v>0.18814929630021499</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>13.441427999999998</v>
+        <v>0.20802762847619591</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>13.933787999999998</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>14.426147999999998</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>14.918507999999999</v>
+        <v>0.32786815291438592</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="J2">
-        <f t="shared" si="0"/>
-        <v>15.410867999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:J7" si="1">$C$9*$C$10*B$1/$A3</f>
-        <v>5.7359939999999998</v>
+        <f t="shared" ref="B3:G16" si="1">(($J$3^(2*$A3)-($J$2/B$1)*$J$4^(2*$A3))/($J$3^(2*$A3)+($J$2/B$1)*$J$4^(2*$A3)))^2</f>
+        <v>0.11885305249617725</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>5.9821739999999997</v>
+        <v>0.19155714266467835</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>6.2283539999999995</v>
+        <v>0.23344808356932634</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>6.4745340000000002</v>
+        <v>0.29062380420366662</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>6.7207139999999992</v>
+        <v>0.31198698319726154</v>
       </c>
       <c r="G3">
         <f t="shared" si="1"/>
-        <v>6.966893999999999</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="1"/>
-        <v>7.2130739999999989</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
-        <v>7.4592539999999996</v>
+        <v>0.43330675152443782</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
-        <v>7.7054339999999995</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
-        <v>3.8239959999999997</v>
+        <v>0.21197814213872043</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>3.9881159999999998</v>
+        <v>0.29431778493968908</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>4.1522359999999994</v>
+        <v>0.33870944154595761</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>4.3163559999999999</v>
+        <v>0.39676454238700481</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>4.4804759999999995</v>
+        <v>0.41783535296181984</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>4.6445959999999991</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>4.8087159999999995</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>4.972836</v>
+        <v>0.5324693865118999</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
-        <v>5.1369559999999996</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>2.8679969999999999</v>
+        <v>0.31618178072838621</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>2.9910869999999998</v>
+        <v>0.40043011668989587</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>3.1141769999999998</v>
+        <v>0.44377942232615203</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>3.2372670000000001</v>
+        <v>0.498742498704972</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>3.3603569999999996</v>
+        <v>0.51826589871758744</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>3.4834469999999995</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>3.6065369999999994</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>3.7296269999999998</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>3.8527169999999997</v>
+        <v>0.62113584320011939</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>2.2943975999999999</v>
+        <v>0.42193736134908921</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>2.3928696</v>
+        <v>0.50215418833809899</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>2.4913415999999997</v>
+        <v>0.54202306751972285</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>2.5898135999999998</v>
+        <v>0.59141050272509454</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>2.6882855999999999</v>
+        <v>0.60866843547942107</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>2.7867575999999996</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>2.8852295999999997</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>2.9837015999999998</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>3.0821736</v>
+        <v>0.69742003535749175</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>0.52204236230161005</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.59443661207316856</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.62948135716400921</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.67212898842741398</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.68684564318288988</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.76113737631793399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>0.61199041546326649</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.67471624199836655</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.70447218821398705</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.74019376834864736</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.7524017827317141</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.81316066458434499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0.689667852465223</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.74234429645895395</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.76694664053620831</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.79617408490574659</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.80608868322916805</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.854899968256146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>0.75473617305922724</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.79792329844840071</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.8178533309981636</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.84134084707598411</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.84926296555234371</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.8879422208790807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>0.80798033851792994</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.84274017840732518</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.85863417711386913</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.87725044179882228</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.88350211858208705</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.91383252218404287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>0.85077190131803437</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.87835570830760423</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.89087977745294578</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.90548013335569499</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.91036681718177903</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.93396046057934368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0.88469133649577669</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.90634467025901877</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.91612317567244617</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.92748196580323738</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.93127401119255304</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.94951523963749018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0.91129545817432711</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.92815319475571234</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.93573474003757984</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.94451746590612762</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.94744380826678165</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.96148125131097528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0.93199408679711093</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.94503566403003647</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.95088254905264258</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.95764169084359207</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.95989045283924235</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.97065462154770354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>0.94799917392114696</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.95804002380806408</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.96253085029607055</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.96771413580508514</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.96943666775371007</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.97766858009867474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1.18</v>
+      </c>
+      <c r="C18">
+        <v>1.47</v>
+      </c>
+      <c r="D18">
+        <v>1.65</v>
+      </c>
+      <c r="E18">
+        <v>1.92</v>
+      </c>
+      <c r="F18">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G18">
+        <v>2.79</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:G19" si="2">(($J$19^(2*$A19)-($J$18/B$18)*$J$20^(2*$A19))/($J$19^(2*$A19)+($J$18/B$18)*$J$20^(2*$A19)))^2</f>
+        <v>8.2004484045708828E-2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>0.14728063222466473</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.18653874372760662</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>0.24155017852073193</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.26246538301272926</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0.38429290573273767</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:G33" si="3">(($J$19^(2*$A20)-($J$18/B$18)*$J$20^(2*$A20))/($J$19^(2*$A20)+($J$18/B$18)*$J$20^(2*$A20)))^2</f>
+        <v>0.21824860961961223</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>0.30091811687871373</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>0.34533773960093428</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>0.40330095610830419</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>0.42430629196935893</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0.53832515458379704</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>0.37926935055682182</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>0.46170461159258369</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>0.5032093506785914</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>0.55507236177457697</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>0.57330690647855453</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>0.66793692139727545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>0.53385818135136454</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>0.60511425806469077</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>0.63951093304932438</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>0.68129052070857965</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0.69568823660638657</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>0.7682260660535718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>0.66435345725066597</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>0.72046470631790349</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>0.7468003268292841</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>0.77819014023868049</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0.78886324510300154</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>0.84158873671829248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>0.76554135447178306</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>0.80706488160766576</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>0.8261906420400531</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.84870157945127744</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0.85628741403884467</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0.89327598313390399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>0.83966708877935659</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>0.8691464828428519</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>0.88255537960420705</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0.89820603183041614</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>0.9034487246269477</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0.92879249889106286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>0.89194166805709696</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>0.9123004435110118</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>0.92148393048080446</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0.93214352156612101</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0.93570023983285355</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.95279625922353361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>0.92788447337777669</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>0.94168956329744524</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>0.94788258503455702</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0.95504480868317299</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0.95742837204216558</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0.96884258775089149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>0.95218649541758904</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>0.96143520050917841</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>0.96556916986957952</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0.97033861282717071</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0.97192315136938856</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0.97949242013536875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>0.96843668618467837</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>0.97458375988367874</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>0.97732481381077652</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>0.98048222784230166</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0.98153002724319383</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0.98652724547839188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>0.97922377504512914</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>0.9832880753854214</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>0.98509755585639303</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>0.98717973174797602</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0.98787019961213984</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>0.99115973124032564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="3"/>
+        <v>0.98635011415038154</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>0.98902813030678027</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>0.99021919280522941</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0.99158882112548519</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.99204278220253039</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0.99420404737127011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="3"/>
+        <v>0.99104322876261774</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>0.99280384021101309</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>0.99358635405665041</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>0.99448578261005383</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.99478380221921625</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>0.99620200063753683</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="3"/>
+        <v>0.994127545993164</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>0.99528332153899124</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>0.99579678569665675</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>0.99638679382111672</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.99658224844399479</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>0.99751208988893791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f>(($J$3^(2*$A36)-($J$2/B$1)*$J$4^(2*$A36))/($J$3^(2*$A36)+($J$2/B$1)*$J$4^(2*$A36)))^2</f>
+        <v>4.7341559006892339E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:B65" si="4">(($J$3^(2*$A37)-($J$2/B$1)*$J$4^(2*$A37))/($J$3^(2*$A37)+($J$2/B$1)*$J$4^(2*$A37)))^2</f>
+        <v>0.11885305249617725</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>0.21197814213872043</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>0.31618178072838621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="4"/>
+        <v>0.42193736134908921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="4"/>
+        <v>0.52204236230161005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>0.61199041546326649</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>0.689667852465223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="4"/>
+        <v>0.75473617305922724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>0.80798033851792994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>0.85077190131803437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>0.88469133649577669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>0.91129545817432711</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>0.93199408679711093</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>0.94799917392114696</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>0.96031703882845965</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="4"/>
+        <v>0.96976331973603824</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="4"/>
+        <v>0.97698779070919406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="4"/>
+        <v>0.98250163279350966</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>20</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="4"/>
+        <v>0.98670329689465108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>21</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="4"/>
+        <v>0.9899012425545729</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="4"/>
+        <v>0.99233304460571869</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>23</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="4"/>
+        <v>0.99418098276033906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>24</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="4"/>
+        <v>0.99558450922037822</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>25</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="4"/>
+        <v>0.99665008000005018</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>26</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="4"/>
+        <v>0.99745882933038821</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>27</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="4"/>
+        <v>0.99807251631843619</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>28</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="4"/>
+        <v>0.99853810785608244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>29</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="4"/>
+        <v>0.9988912963127472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>30</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="1"/>
-        <v>1.9119979999999999</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>1.9940579999999999</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>2.0761179999999997</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>2.1581779999999999</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>2.2402379999999997</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>2.3222979999999995</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>2.4043579999999998</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>2.486418</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>2.5684779999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>8.2059999999999994E-2</v>
+      <c r="B65">
+        <f t="shared" si="4"/>
+        <v>0.99915919148954624</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>